--- a/assignment2/src/main/java/com/assignment2/assignment2/README (1).xlsx
+++ b/assignment2/src/main/java/com/assignment2/assignment2/README (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F588E9-EE32-41AF-A50E-62BDA907DDCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF4A7E0-3987-4AB5-BAA5-652D156D13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-840" yWindow="690" windowWidth="28800" windowHeight="11385" xr2:uid="{57A0842F-F47D-4799-B6F7-6F8EC8640077}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A0842F-F47D-4799-B6F7-6F8EC8640077}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
   <si>
     <t>HTTP METHOD</t>
   </si>
@@ -153,9 +153,6 @@
     <t>/api/getStock/{id}</t>
   </si>
   <si>
-    <t>/api/changeStockName/{id}/{quantity}</t>
-  </si>
-  <si>
     <t>/api/deleteStock/{id}</t>
   </si>
   <si>
@@ -175,6 +172,12 @@
   </si>
   <si>
     <t>Main code at: assignment2/src/main/java/com/assignment2/assignment2</t>
+  </si>
+  <si>
+    <t>/api/changeStockQuantity/{id}/{quantity}</t>
+  </si>
+  <si>
+    <t>To change stock Quantity</t>
   </si>
 </sst>
 </file>
@@ -702,8 +705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8403CA3-0C96-42E1-A756-89A3DACDDD3D}">
   <dimension ref="B2:W28"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -776,7 +779,7 @@
         <v>200</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G4" s="18" t="s">
         <v>9</v>
@@ -898,7 +901,7 @@
         <v>200</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G9" s="16" t="s">
         <v>9</v>
@@ -1001,7 +1004,7 @@
         <v>200</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>9</v>
@@ -1116,7 +1119,7 @@
         <v>200</v>
       </c>
       <c r="F19" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" s="16" t="s">
         <v>9</v>
@@ -1133,13 +1136,13 @@
         <v>10</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E20" s="7">
         <v>200</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="G20" s="16" t="s">
         <v>9</v>
@@ -1156,7 +1159,7 @@
         <v>11</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E21" s="7">
         <v>200</v>
@@ -1204,12 +1207,12 @@
     </row>
     <row r="25" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D25" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="D26" s="14" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">

--- a/assignment2/src/main/java/com/assignment2/assignment2/README (1).xlsx
+++ b/assignment2/src/main/java/com/assignment2/assignment2/README (1).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saleh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF4A7E0-3987-4AB5-BAA5-652D156D13E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D477E76-EF1B-4423-AA24-4A3BC95C0DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{57A0842F-F47D-4799-B6F7-6F8EC8640077}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="57">
   <si>
     <t>HTTP METHOD</t>
   </si>
@@ -178,6 +178,24 @@
   </si>
   <si>
     <t>To change stock Quantity</t>
+  </si>
+  <si>
+    <t>To Run Docker:</t>
+  </si>
+  <si>
+    <t>docker container run --name mysqldb --network springapi -e MYSQL_ROOT_PASSWORD=root -e MYSQL_DATABASE=web-services -d mysql:8OOT_PASSWORD=root -e MYSQL_DATABASE=web-services -d mysql:8</t>
+  </si>
+  <si>
+    <t>docker container logs -f {ID}</t>
+  </si>
+  <si>
+    <t>docker container exec -it  {ID} bash</t>
+  </si>
+  <si>
+    <t>docker run --network springapi --name springapi -p 8080:8080 -d springapi</t>
+  </si>
+  <si>
+    <t>docker pull saleh2marmash/springapi</t>
   </si>
 </sst>
 </file>
@@ -341,7 +359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment readingOrder="1"/>
@@ -388,6 +406,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -703,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8403CA3-0C96-42E1-A756-89A3DACDDD3D}">
-  <dimension ref="B2:W28"/>
+  <dimension ref="B2:W32"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,7 +1240,32 @@
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="D28" s="21"/>
+      <c r="D28" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D29" s="26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D30" s="26" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D31" s="26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="D32" s="26" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
